--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.1/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.1/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="931">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,751 +64,751 @@
     <t>died</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>clerk</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>investing</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>challenges</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>nurses</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>cares</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>guide</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>suppliers</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>clerk</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>rising</t>
-  </si>
-  <si>
-    <t>investing</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>nurses</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>cares</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>bright</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>beach</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>hopefully</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>chance</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>sick</t>
   </si>
   <si>
     <t>19</t>
@@ -3172,10 +3172,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3233,7 +3233,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03863826842896437</v>
+        <v>0.03938975653687005</v>
       </c>
       <c r="C3">
         <v>205</v>
@@ -3254,7 +3254,7 @@
         <v>87</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K3">
         <v>0.008285680352845904</v>
@@ -3283,7 +3283,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01964620446443901</v>
+        <v>0.02002830981286197</v>
       </c>
       <c r="C4">
         <v>53</v>
@@ -3304,7 +3304,7 @@
         <v>463</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="K4">
         <v>0.007858579372979395</v>
@@ -3313,19 +3313,19 @@
         <v>206</v>
       </c>
       <c r="M4">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="N4">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3333,7 +3333,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01322045327670744</v>
+        <v>0.01347758212389772</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -3354,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>0.00744725625694541</v>
@@ -3383,7 +3383,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01294209677009632</v>
+        <v>0.0131938117720761</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -3404,7 +3404,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="K6">
         <v>0.007222458547363324</v>
@@ -3413,19 +3413,19 @@
         <v>174</v>
       </c>
       <c r="M6">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="N6">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3433,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01206856746682626</v>
+        <v>0.01230329291647862</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -3454,7 +3454,7 @@
         <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>0.006170385449911972</v>
@@ -3483,7 +3483,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01045168601355795</v>
+        <v>0.01065496421587162</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -3504,7 +3504,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K8">
         <v>0.005846054495892049</v>
@@ -3533,7 +3533,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009729990157028377</v>
+        <v>0.009919231864546638</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K9">
         <v>0.005820357428653525</v>
@@ -3583,7 +3583,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009729990157028377</v>
+        <v>0.009919231864546638</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -3604,7 +3604,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K10">
         <v>0.00569013160998895</v>
@@ -3633,28 +3633,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009729990157028377</v>
+        <v>0.00953008971380667</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K11">
         <v>0.005610545430171949</v>
@@ -3683,13 +3683,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009348272162319744</v>
+        <v>0.009124366231348349</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3701,10 +3701,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>0.005447886250104636</v>
@@ -3733,28 +3733,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009348272162319744</v>
+        <v>0.008253299792501348</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K13">
         <v>0.005420301838682214</v>
@@ -3783,13 +3783,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008950289178888881</v>
+        <v>0.008253299792501348</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3801,10 +3801,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K14">
         <v>0.005392576327764347</v>
@@ -3833,7 +3833,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008095841174059783</v>
+        <v>0.008253299792501348</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -3851,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15">
         <v>0.004866581260076918</v>
@@ -3883,28 +3883,28 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008095841174059783</v>
+        <v>0.008253299792501348</v>
       </c>
       <c r="C16">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K16">
         <v>0.004515074182413931</v>
@@ -3933,13 +3933,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008095841174059783</v>
+        <v>0.007278726248873185</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>0.004414353537917952</v>
@@ -3983,28 +3983,28 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.008095841174059783</v>
+        <v>0.007278726248873185</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K18">
         <v>0.004380265355668692</v>
@@ -4033,25 +4033,25 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007139860800146456</v>
+        <v>0.007278726248873185</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>265</v>
@@ -4083,13 +4083,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007139860800146456</v>
+        <v>0.006738791061948861</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K20">
         <v>0.004097363056016936</v>
@@ -4133,25 +4133,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007139860800146456</v>
+        <v>0.006738791061948861</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>266</v>
@@ -4183,7 +4183,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00661022663835372</v>
+        <v>0.006738791061948861</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4201,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K22">
         <v>0.003871644170487296</v>
@@ -4233,7 +4233,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00661022663835372</v>
+        <v>0.006738791061948861</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4251,10 +4251,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K23">
         <v>0.003793421073325966</v>
@@ -4283,7 +4283,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00661022663835372</v>
+        <v>0.006738791061948861</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>267</v>
@@ -4333,13 +4333,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00661022663835372</v>
+        <v>0.006151646458239308</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>268</v>
@@ -4383,13 +4383,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00661022663835372</v>
+        <v>0.006151646458239308</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4401,10 +4401,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K26">
         <v>0.003631924166736424</v>
@@ -4433,7 +4433,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006034283733413128</v>
+        <v>0.006151646458239308</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4451,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>0.003548420495038509</v>
@@ -4483,7 +4483,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006034283733413128</v>
+        <v>0.006151646458239308</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4501,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K28">
         <v>0.003505922908158702</v>
@@ -4533,7 +4533,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006034283733413128</v>
+        <v>0.006151646458239308</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>269</v>
@@ -4583,7 +4583,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006034283733413128</v>
+        <v>0.006151646458239308</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4601,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K30">
         <v>0.003239249914410399</v>
@@ -4633,13 +4633,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006034283733413128</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>270</v>
@@ -4683,25 +4683,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006034283733413128</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>5</v>
-      </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>271</v>
@@ -4733,7 +4733,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005397227449373189</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K33">
         <v>0.003145338593012372</v>
@@ -4783,7 +4783,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005397227449373189</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K34">
         <v>0.003048535668378889</v>
@@ -4833,28 +4833,28 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005397227449373189</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K35">
         <v>0.002998962678947665</v>
@@ -4883,28 +4883,28 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005397227449373189</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>791</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K36">
         <v>0.002948556354907192</v>
@@ -4933,28 +4933,28 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005397227449373189</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
       <c r="D37">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="E37">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F37">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K37">
         <v>0.002897273201892812</v>
@@ -4983,25 +4983,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005397227449373189</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="E38">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F38">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>791</v>
+        <v>15</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>272</v>
@@ -5033,28 +5033,28 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005397227449373189</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="E39">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F39">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K39">
         <v>0.002845065804994475</v>
@@ -5083,28 +5083,28 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005397227449373189</v>
+        <v>0.005502199861667566</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K40">
         <v>0.002845065804994475</v>
@@ -5133,25 +5133,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005397227449373189</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>273</v>
@@ -5183,13 +5183,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005397227449373189</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>274</v>
@@ -5233,7 +5233,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>275</v>
@@ -5283,7 +5283,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5304,7 +5304,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K44">
         <v>0.002737665847292932</v>
@@ -5333,7 +5333,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5351,10 +5351,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K45">
         <v>0.002737665847292932</v>
@@ -5383,7 +5383,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5401,10 +5401,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K46">
         <v>0.002737665847292932</v>
@@ -5433,7 +5433,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5454,7 +5454,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K47">
         <v>0.002682353764844742</v>
@@ -5483,7 +5483,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5501,10 +5501,10 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K48">
         <v>0.002682353764844742</v>
@@ -5533,28 +5533,28 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K49">
         <v>0.002625876834148814</v>
@@ -5583,25 +5583,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>276</v>
@@ -5633,28 +5633,28 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E51">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F51">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K51">
         <v>0.002625876834148814</v>
@@ -5683,25 +5683,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E52">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F52">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>277</v>
@@ -5733,13 +5733,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E53">
         <v>0.97</v>
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>2999</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>278</v>
@@ -5783,28 +5783,28 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="E54">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F54">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K54">
         <v>0.002568158207054627</v>
@@ -5833,28 +5833,28 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="E55">
-        <v>0.97</v>
+        <v>0.57</v>
       </c>
       <c r="F55">
-        <v>0.03000000000000003</v>
+        <v>0.43</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>2999</v>
+        <v>961</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K55">
         <v>0.002509112194543056</v>
@@ -5883,28 +5883,28 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F56">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K56">
         <v>0.002509112194543056</v>
@@ -5933,28 +5933,28 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E57">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="F57">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>961</v>
+        <v>14</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K57">
         <v>0.002448642773690622</v>
@@ -5983,25 +5983,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004674136081159872</v>
+        <v>0.004765044856903335</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>279</v>
@@ -6033,25 +6033,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004674136081159872</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>280</v>
@@ -6083,13 +6083,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004674136081159872</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -6101,10 +6101,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K60">
         <v>0.002386641753906509</v>
@@ -6133,7 +6133,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>281</v>
@@ -6183,7 +6183,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6201,10 +6201,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K62">
         <v>0.002322986502292377</v>
@@ -6233,7 +6233,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6251,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>282</v>
@@ -6283,7 +6283,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6301,10 +6301,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K64">
         <v>0.002322986502292377</v>
@@ -6333,28 +6333,28 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K65">
         <v>0.002322986502292377</v>
@@ -6383,25 +6383,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>283</v>
@@ -6433,19 +6433,19 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E67">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F67">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -6483,25 +6483,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E68">
-        <v>0.6</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F68">
-        <v>0.4</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>285</v>
@@ -6533,25 +6533,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F69">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>286</v>
@@ -6583,28 +6583,28 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E70">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="F70">
-        <v>0.06000000000000005</v>
+        <v>0.18</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K70">
         <v>0.002257537091206966</v>
@@ -6633,28 +6633,28 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E71">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="F71">
-        <v>0.07999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K71">
         <v>0.002257537091206966</v>
@@ -6683,25 +6683,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E72">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="F72">
-        <v>0.18</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>287</v>
@@ -6733,28 +6733,28 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F73">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K73">
         <v>0.002257537091206966</v>
@@ -6783,25 +6783,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F74">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>288</v>
@@ -6833,25 +6833,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F75">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>289</v>
@@ -6883,28 +6883,28 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E76">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F76">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K76">
         <v>0.002190132677834346</v>
@@ -6933,28 +6933,28 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E77">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F77">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K77">
         <v>0.002190132677834346</v>
@@ -6983,28 +6983,28 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E78">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F78">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K78">
         <v>0.002190132677834346</v>
@@ -7033,28 +7033,28 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E79">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="F79">
-        <v>0.05000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K79">
         <v>0.002190132677834346</v>
@@ -7083,28 +7083,28 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E80">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F80">
-        <v>0.18</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K80">
         <v>0.002120586846809269</v>
@@ -7133,19 +7133,19 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E81">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="F81">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -7154,7 +7154,7 @@
         <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K81">
         <v>0.002120586846809269</v>
@@ -7183,28 +7183,28 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E82">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F82">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K82">
         <v>0.002120586846809269</v>
@@ -7233,25 +7233,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="E83">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="F83">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>290</v>
@@ -7283,25 +7283,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E84">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F84">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>291</v>
@@ -7333,28 +7333,28 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85">
-        <v>231</v>
+        <v>4</v>
       </c>
       <c r="E85">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F85">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K85">
         <v>0.002120586846809269</v>
@@ -7383,19 +7383,19 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E86">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F86">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -7433,28 +7433,28 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E87">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F87">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K87">
         <v>0.002120586846809269</v>
@@ -7483,25 +7483,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E88">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F88">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>293</v>
@@ -7533,25 +7533,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E89">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F89">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>294</v>
@@ -7583,28 +7583,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="F90">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K90">
         <v>0.002048681528008468</v>
@@ -7633,28 +7633,28 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K91">
         <v>0.002048681528008468</v>
@@ -7683,28 +7683,28 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003816416129057956</v>
+        <v>0.003890642833628819</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K92">
         <v>0.002048681528008468</v>
@@ -7733,13 +7733,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003816416129057956</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>295</v>
@@ -7783,13 +7783,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003816416129057956</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7801,10 +7801,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K94">
         <v>0.002048681528008468</v>
@@ -7833,7 +7833,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>296</v>
@@ -7883,7 +7883,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>297</v>
@@ -7933,7 +7933,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>298</v>
@@ -7983,7 +7983,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>299</v>
@@ -8033,7 +8033,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>300</v>
@@ -8083,7 +8083,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8101,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>301</v>
@@ -8133,7 +8133,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8151,10 +8151,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K101">
         <v>0.001974158917500247</v>
@@ -8183,7 +8183,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>302</v>
@@ -8233,7 +8233,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>0.001896710536662983</v>
@@ -8283,25 +8283,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>303</v>
@@ -8333,25 +8333,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>304</v>
@@ -8383,28 +8383,28 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E106">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F106">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K106">
         <v>0.001896710536662983</v>
@@ -8433,28 +8433,28 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F107">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K107">
         <v>0.001896710536662983</v>
@@ -8483,28 +8483,28 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K108">
         <v>0.001896710536662983</v>
@@ -8533,25 +8533,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F109">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>305</v>
@@ -8583,28 +8583,28 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K110">
         <v>0.001896710536662983</v>
@@ -8633,7 +8633,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8651,10 +8651,10 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K111">
         <v>0.001896710536662983</v>
@@ -8683,25 +8683,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>306</v>
@@ -8733,28 +8733,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F113">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K113">
         <v>0.001896710536662983</v>
@@ -8783,7 +8783,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>307</v>
@@ -8833,28 +8833,28 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E115">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F115">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K115">
         <v>0.001896710536662983</v>
@@ -8883,28 +8883,28 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K116">
         <v>0.001896710536662983</v>
@@ -8933,25 +8933,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E117">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F117">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>308</v>
@@ -8983,25 +8983,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>309</v>
@@ -9033,28 +9033,28 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K119">
         <v>0.001815962083368212</v>
@@ -9083,25 +9083,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>310</v>
@@ -9133,28 +9133,28 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K121">
         <v>0.001815962083368212</v>
@@ -9183,25 +9183,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E122">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F122">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>311</v>
@@ -9233,28 +9233,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E123">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F123">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>15</v>
+        <v>399</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K123">
         <v>0.001815962083368212</v>
@@ -9283,25 +9283,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>312</v>
@@ -9333,7 +9333,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9351,7 +9351,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>313</v>
@@ -9383,28 +9383,28 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K126">
         <v>0.001731451909980076</v>
@@ -9433,13 +9433,13 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E127">
         <v>0.9399999999999999</v>
@@ -9451,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>314</v>
@@ -9483,25 +9483,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E128">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F128">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>315</v>
@@ -9533,25 +9533,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E129">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F129">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>316</v>
@@ -9583,28 +9583,28 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E130">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F130">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K130">
         <v>0.001731451909980076</v>
@@ -9633,25 +9633,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E131">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F131">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>317</v>
@@ -9683,25 +9683,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F132">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>318</v>
@@ -9733,25 +9733,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F133">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>319</v>
@@ -9783,25 +9783,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F134">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>320</v>
@@ -9833,28 +9833,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E135">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F135">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K135">
         <v>0.001731451909980076</v>
@@ -9883,25 +9883,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E136">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F136">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>321</v>
@@ -9933,25 +9933,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E137">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F137">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>322</v>
@@ -9983,25 +9983,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E138">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F138">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>323</v>
@@ -10033,25 +10033,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>324</v>
@@ -10083,25 +10083,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E140">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F140">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>325</v>
@@ -10133,28 +10133,28 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K141">
         <v>0.001642599508375759</v>
@@ -10183,25 +10183,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142">
         <v>6</v>
-      </c>
-      <c r="E142">
-        <v>0.83</v>
-      </c>
-      <c r="F142">
-        <v>0.17</v>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142">
-        <v>23</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>326</v>
@@ -10233,7 +10233,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10251,7 +10251,7 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>327</v>
@@ -10283,25 +10283,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>328</v>
@@ -10333,7 +10333,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10351,10 +10351,10 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K145">
         <v>0.001642599508375759</v>
@@ -10383,25 +10383,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>329</v>
@@ -10433,25 +10433,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F147">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>330</v>
@@ -10483,25 +10483,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>331</v>
@@ -10533,25 +10533,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F149">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>332</v>
@@ -10583,25 +10583,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="E150">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F150">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>333</v>
@@ -10633,25 +10633,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E151">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F151">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>334</v>
@@ -10683,25 +10683,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F152">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>335</v>
@@ -10733,25 +10733,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E153">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F153">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>336</v>
@@ -10783,28 +10783,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E154">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F154">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K154">
         <v>0.001642599508375759</v>
@@ -10833,25 +10833,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E155">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F155">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>337</v>
@@ -10883,7 +10883,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -10901,7 +10901,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>338</v>
@@ -10933,25 +10933,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F157">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>339</v>
@@ -10983,25 +10983,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>340</v>
@@ -11033,25 +11033,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E159">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F159">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>633</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>341</v>
@@ -11083,28 +11083,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K160">
         <v>0.001548657668194918</v>
@@ -11133,25 +11133,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E161">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F161">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>633</v>
+        <v>3</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>342</v>
@@ -11183,28 +11183,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E162">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F162">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K162">
         <v>0.001548657668194918</v>
@@ -11233,25 +11233,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E163">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F163">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>343</v>
@@ -11283,28 +11283,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K164">
         <v>0.001548657668194918</v>
@@ -11333,28 +11333,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E165">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F165">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K165">
         <v>0.001548657668194918</v>
@@ -11383,28 +11383,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K166">
         <v>0.001548657668194918</v>
@@ -11433,25 +11433,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E167">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F167">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>344</v>
@@ -11483,25 +11483,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F168">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>345</v>
@@ -11533,25 +11533,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E169">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F169">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>346</v>
@@ -11583,25 +11583,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E170">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F170">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>347</v>
@@ -11633,28 +11633,28 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K171">
         <v>0.001548657668194918</v>
@@ -11683,25 +11683,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E172">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F172">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>348</v>
@@ -11733,28 +11733,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K173">
         <v>0.001548657668194918</v>
@@ -11783,25 +11783,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>349</v>
@@ -11833,28 +11833,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E175">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F175">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K175">
         <v>0.001548657668194918</v>
@@ -11883,28 +11883,28 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K176">
         <v>0.001548657668194918</v>
@@ -11933,25 +11933,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E177">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F177">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>350</v>
@@ -11983,25 +11983,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E178">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F178">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>351</v>
@@ -12033,28 +12033,28 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E179">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F179">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K179">
         <v>0.001548657668194918</v>
@@ -12083,25 +12083,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F180">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>352</v>
@@ -12133,28 +12133,28 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E181">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F181">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K181">
         <v>0.001548657668194918</v>
@@ -12183,7 +12183,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12201,10 +12201,10 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K182">
         <v>0.001548657668194918</v>
@@ -12233,25 +12233,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>353</v>
@@ -12283,25 +12283,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E184">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F184">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>354</v>
@@ -12333,25 +12333,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>355</v>
@@ -12383,25 +12383,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E186">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F186">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>356</v>
@@ -12433,28 +12433,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E187">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F187">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K187">
         <v>0.001448636600946406</v>
@@ -12483,13 +12483,13 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E188">
         <v>0.96</v>
@@ -12501,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>105</v>
+        <v>844</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>357</v>
@@ -12533,28 +12533,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E189">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F189">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K189">
         <v>0.001448636600946406</v>
@@ -12583,28 +12583,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E190">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F190">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>844</v>
+        <v>3</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K190">
         <v>0.001448636600946406</v>
@@ -12633,28 +12633,28 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E191">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F191">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K191">
         <v>0.001448636600946406</v>
@@ -12683,25 +12683,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E192">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F192">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>358</v>
@@ -12733,25 +12733,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E193">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F193">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>359</v>
@@ -12783,28 +12783,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E194">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F194">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K194">
         <v>0.001448636600946406</v>
@@ -12833,25 +12833,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E195">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F195">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>360</v>
@@ -12883,25 +12883,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
+        <v>8</v>
+      </c>
+      <c r="E196">
+        <v>0.88</v>
+      </c>
+      <c r="F196">
+        <v>0.12</v>
+      </c>
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196">
         <v>15</v>
-      </c>
-      <c r="E196">
-        <v>0.93</v>
-      </c>
-      <c r="F196">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G196" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196">
-        <v>16</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>361</v>
@@ -12933,25 +12933,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>362</v>
@@ -12983,28 +12983,28 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E198">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F198">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K198">
         <v>0.001448636600946406</v>
@@ -13033,28 +13033,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K199">
         <v>0.001448636600946406</v>
@@ -13083,25 +13083,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>363</v>
@@ -13133,19 +13133,19 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E201">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F201">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
@@ -13154,7 +13154,7 @@
         <v>4</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K201">
         <v>0.001448636600946406</v>
@@ -13183,7 +13183,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>364</v>
@@ -13233,19 +13233,19 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E203">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F203">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
@@ -13254,7 +13254,7 @@
         <v>4</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K203">
         <v>0.001448636600946406</v>
@@ -13283,25 +13283,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>24</v>
+        <v>876</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>365</v>
@@ -13333,28 +13333,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K205">
         <v>0.001448636600946406</v>
@@ -13383,25 +13383,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E206">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F206">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>876</v>
+        <v>50</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>366</v>
@@ -13433,7 +13433,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13451,10 +13451,10 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K207">
         <v>0.001448636600946406</v>
@@ -13483,25 +13483,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E208">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>367</v>
@@ -13533,25 +13533,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>368</v>
@@ -13583,7 +13583,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>369</v>
@@ -13633,25 +13633,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E211">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F211">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>370</v>
@@ -13683,25 +13683,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>371</v>
@@ -13733,25 +13733,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E213">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F213">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>372</v>
@@ -13783,25 +13783,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E214">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F214">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>373</v>
@@ -13833,25 +13833,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E215">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F215">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>374</v>
@@ -13883,25 +13883,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E216">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F216">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>375</v>
@@ -13933,25 +13933,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E217">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F217">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>376</v>
@@ -13983,25 +13983,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E218">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F218">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>377</v>
@@ -14033,25 +14033,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E219">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F219">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>378</v>
@@ -14083,25 +14083,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E220">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F220">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>379</v>
@@ -14133,25 +14133,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="E221">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="F221">
-        <v>0.11</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>380</v>
@@ -14183,19 +14183,19 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E222">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F222">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
@@ -14233,28 +14233,28 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="E223">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F223">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K223">
         <v>0.001341176882422371</v>
@@ -14283,25 +14283,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E224">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F224">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>382</v>
@@ -14333,25 +14333,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E225">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F225">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>383</v>
@@ -14383,25 +14383,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E226">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F226">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>384</v>
@@ -14433,25 +14433,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E227">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F227">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>4</v>
+        <v>308</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>385</v>
@@ -14483,25 +14483,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E228">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F228">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>386</v>
@@ -14533,25 +14533,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E229">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F229">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>308</v>
+        <v>5</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>387</v>
@@ -14583,28 +14583,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E230">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="F230">
-        <v>0.12</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K230">
         <v>0.001341176882422371</v>
@@ -14633,25 +14633,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E231">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F231">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>388</v>
@@ -14683,25 +14683,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>319</v>
+        <v>14</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>389</v>
@@ -14733,25 +14733,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>390</v>
@@ -14783,7 +14783,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14801,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>391</v>
@@ -14833,7 +14833,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14851,7 +14851,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>392</v>
@@ -14883,25 +14883,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>393</v>
@@ -14933,28 +14933,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K237">
         <v>0.001341176882422371</v>
@@ -14983,25 +14983,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E238">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="F238">
-        <v>0.02000000000000002</v>
+        <v>0.14</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>394</v>
@@ -15033,25 +15033,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E239">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F239">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>395</v>
@@ -15083,28 +15083,28 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E240">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F240">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K240">
         <v>0.001341176882422371</v>
@@ -15133,25 +15133,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E241">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F241">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>396</v>
@@ -15183,28 +15183,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E242">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F242">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K242">
         <v>0.001341176882422371</v>
@@ -15233,25 +15233,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E243">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F243">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>397</v>
@@ -15283,28 +15283,28 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K244">
         <v>0.001341176882422371</v>
@@ -15333,7 +15333,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15351,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>398</v>
@@ -15383,25 +15383,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>399</v>
@@ -15433,25 +15433,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E247">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F247">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>400</v>
@@ -15483,25 +15483,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E248">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F248">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>401</v>
@@ -15533,25 +15533,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E249">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F249">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>402</v>
@@ -15583,25 +15583,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E250">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F250">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>403</v>
@@ -15633,25 +15633,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>404</v>
@@ -15683,25 +15683,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E252">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>405</v>
@@ -15733,7 +15733,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -15751,7 +15751,7 @@
         <v>0</v>
       </c>
       <c r="H253">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>406</v>
@@ -15783,7 +15783,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -15801,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>407</v>
@@ -15833,7 +15833,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -15851,10 +15851,10 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K255">
         <v>0.001341176882422371</v>
@@ -15883,7 +15883,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -15901,10 +15901,10 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K256">
         <v>0.001341176882422371</v>
@@ -15933,7 +15933,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.002698613724686594</v>
+        <v>0.002751099930833783</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -15951,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>408</v>
@@ -15979,30 +15979,6 @@
       </c>
     </row>
     <row r="258" spans="1:17">
-      <c r="A258" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B258">
-        <v>0.002698613724686594</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258">
-        <v>1</v>
-      </c>
-      <c r="E258">
-        <v>0</v>
-      </c>
-      <c r="F258">
-        <v>1</v>
-      </c>
-      <c r="G258" t="b">
-        <v>0</v>
-      </c>
-      <c r="H258">
-        <v>22</v>
-      </c>
       <c r="J258" s="1" t="s">
         <v>409</v>
       </c>
@@ -16029,30 +16005,6 @@
       </c>
     </row>
     <row r="259" spans="1:17">
-      <c r="A259" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B259">
-        <v>0.002698613724686594</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-      <c r="D259">
-        <v>1</v>
-      </c>
-      <c r="E259">
-        <v>0</v>
-      </c>
-      <c r="F259">
-        <v>1</v>
-      </c>
-      <c r="G259" t="b">
-        <v>0</v>
-      </c>
-      <c r="H259">
-        <v>31</v>
-      </c>
       <c r="J259" s="1" t="s">
         <v>410</v>
       </c>
@@ -16080,7 +16032,7 @@
     </row>
     <row r="260" spans="1:17">
       <c r="J260" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K260">
         <v>0.001224321386845311</v>
@@ -16236,7 +16188,7 @@
     </row>
     <row r="266" spans="1:17">
       <c r="J266" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K266">
         <v>0.001224321386845311</v>
@@ -16314,7 +16266,7 @@
     </row>
     <row r="269" spans="1:17">
       <c r="J269" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K269">
         <v>0.001224321386845311</v>
@@ -16470,7 +16422,7 @@
     </row>
     <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K275">
         <v>0.001224321386845311</v>
@@ -16808,7 +16760,7 @@
     </row>
     <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K288">
         <v>0.001224321386845311</v>
@@ -17094,7 +17046,7 @@
     </row>
     <row r="299" spans="10:17">
       <c r="J299" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K299">
         <v>0.001224321386845311</v>
@@ -17172,7 +17124,7 @@
     </row>
     <row r="302" spans="10:17">
       <c r="J302" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K302">
         <v>0.001095066338917173</v>
@@ -17380,7 +17332,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K310">
         <v>0.001095066338917173</v>
@@ -17692,7 +17644,7 @@
     </row>
     <row r="322" spans="10:17">
       <c r="J322" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K322">
         <v>0.001095066338917173</v>
@@ -17822,7 +17774,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K327">
         <v>0.001095066338917173</v>
@@ -17848,7 +17800,7 @@
     </row>
     <row r="328" spans="10:17">
       <c r="J328" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K328">
         <v>0.001095066338917173</v>
@@ -17926,7 +17878,7 @@
     </row>
     <row r="331" spans="10:17">
       <c r="J331" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K331">
         <v>0.001095066338917173</v>
@@ -18160,7 +18112,7 @@
     </row>
     <row r="340" spans="10:17">
       <c r="J340" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K340">
         <v>0.001095066338917173</v>
@@ -18420,7 +18372,7 @@
     </row>
     <row r="350" spans="10:17">
       <c r="J350" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K350">
         <v>0.001095066338917173</v>
@@ -18602,7 +18554,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K357">
         <v>0.001095066338917173</v>
@@ -18914,7 +18866,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K369">
         <v>0.001095066338917173</v>
@@ -18966,7 +18918,7 @@
     </row>
     <row r="371" spans="10:17">
       <c r="J371" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K371">
         <v>0.001095066338917173</v>
@@ -19018,7 +18970,7 @@
     </row>
     <row r="373" spans="10:17">
       <c r="J373" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K373">
         <v>0.0009483552683314916</v>
@@ -19304,7 +19256,7 @@
     </row>
     <row r="384" spans="10:17">
       <c r="J384" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K384">
         <v>0.0009483552683314916</v>
@@ -19642,7 +19594,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K397">
         <v>0.0009483552683314916</v>
@@ -19746,7 +19698,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K401">
         <v>0.0009483552683314916</v>
@@ -19824,7 +19776,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K404">
         <v>0.0009483552683314916</v>
@@ -19954,7 +19906,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K409">
         <v>0.0009483552683314916</v>
@@ -20292,7 +20244,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K422">
         <v>0.0009483552683314916</v>
@@ -20604,7 +20556,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K434">
         <v>0.0009483552683314916</v>
@@ -20630,7 +20582,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K435">
         <v>0.0009483552683314916</v>
@@ -20786,7 +20738,7 @@
     </row>
     <row r="441" spans="10:17">
       <c r="J441" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K441">
         <v>0.0009483552683314916</v>
@@ -20812,7 +20764,7 @@
     </row>
     <row r="442" spans="10:17">
       <c r="J442" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K442">
         <v>0.0009483552683314916</v>
@@ -20968,7 +20920,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K448">
         <v>0.0009483552683314916</v>
@@ -21072,7 +21024,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K452">
         <v>0.0009483552683314916</v>
@@ -21254,7 +21206,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K459">
         <v>0.0007743288340974592</v>
@@ -21410,7 +21362,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K465">
         <v>0.0007743288340974592</v>
@@ -21618,7 +21570,7 @@
     </row>
     <row r="473" spans="10:17">
       <c r="J473" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K473">
         <v>0.0007743288340974592</v>
@@ -22008,7 +21960,7 @@
     </row>
     <row r="488" spans="10:17">
       <c r="J488" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K488">
         <v>0.0007743288340974592</v>
@@ -22268,7 +22220,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K498">
         <v>0.0007743288340974592</v>
@@ -22294,7 +22246,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K499">
         <v>0.0007743288340974592</v>
@@ -22580,7 +22532,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K510">
         <v>0.0007743288340974592</v>
@@ -22918,7 +22870,7 @@
     </row>
     <row r="523" spans="10:17">
       <c r="J523" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K523">
         <v>0.0007743288340974592</v>
@@ -23152,7 +23104,7 @@
     </row>
     <row r="532" spans="10:17">
       <c r="J532" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K532">
         <v>0.0007743288340974592</v>
@@ -23204,7 +23156,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K534">
         <v>0.0007743288340974592</v>
@@ -23438,7 +23390,7 @@
     </row>
     <row r="543" spans="10:17">
       <c r="J543" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K543">
         <v>0.0007743288340974592</v>
@@ -23750,7 +23702,7 @@
     </row>
     <row r="555" spans="10:17">
       <c r="J555" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K555">
         <v>0.0007743288340974592</v>
@@ -24088,7 +24040,7 @@
     </row>
     <row r="568" spans="10:17">
       <c r="J568" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K568">
         <v>0.0007743288340974592</v>
@@ -24192,7 +24144,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K572">
         <v>0.0007743288340974592</v>
@@ -24530,7 +24482,7 @@
     </row>
     <row r="585" spans="10:17">
       <c r="J585" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K585">
         <v>0.0007743288340974592</v>
@@ -24608,7 +24560,7 @@
     </row>
     <row r="588" spans="10:17">
       <c r="J588" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K588">
         <v>0.0007743288340974592</v>
@@ -25180,7 +25132,7 @@
     </row>
     <row r="610" spans="10:17">
       <c r="J610" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K610">
         <v>0.0005475331694585865</v>
@@ -25336,7 +25288,7 @@
     </row>
     <row r="616" spans="10:17">
       <c r="J616" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K616">
         <v>0.0005475331694585865</v>
@@ -25518,7 +25470,7 @@
     </row>
     <row r="623" spans="10:17">
       <c r="J623" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K623">
         <v>0.0005475331694585865</v>
@@ -27260,7 +27212,7 @@
     </row>
     <row r="690" spans="10:17">
       <c r="J690" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K690">
         <v>0.0005475331694585865</v>
@@ -27390,7 +27342,7 @@
     </row>
     <row r="695" spans="10:17">
       <c r="J695" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K695">
         <v>0.0005475331694585865</v>
@@ -27598,7 +27550,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K703">
         <v>0.0005475331694585865</v>
@@ -28274,7 +28226,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K729">
         <v>0.0005475331694585865</v>
@@ -29028,7 +28980,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K758">
         <v>0.0005475331694585865</v>
@@ -30562,7 +30514,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K817">
         <v>0.0005475331694585865</v>
